--- a/Electronic/Components/Electronics Components Index.xlsx
+++ b/Electronic/Components/Electronics Components Index.xlsx
@@ -4273,6 +4273,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100195A0DC3D759E3489DFA9C5205E5B14C" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="50d30e209eacd544e519b0de95956bf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9557b78e-b540-44eb-8496-d55148e88a38" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="093a042629348530cc8d8a9fb023c1bd" ns2:_="">
     <xsd:import namespace="9557b78e-b540-44eb-8496-d55148e88a38"/>
@@ -4404,15 +4413,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE39B8A0-603B-4CD4-BED2-FB7318812FE6}">
   <ds:schemaRefs>
@@ -4430,6 +4430,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{723C7C72-FB82-4CAD-AEF8-0F96687F8D2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD7DD402-3AFE-43B9-82AA-89DC3E0E2BD0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4445,12 +4453,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{723C7C72-FB82-4CAD-AEF8-0F96687F8D2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>